--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>693824.1462445066</v>
+        <v>725739.309509265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>492028.9342484433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7618515.238310848</v>
+        <v>7650080.897153157</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>226.6328787749282</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>391.5805149124629</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>128.2990226939029</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>45.38682686930591</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.5122002751355</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,7 +902,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +911,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>72.84530943397445</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.0665348042639</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>47.06008056049281</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>61.91044193078682</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>280.5880734091242</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>101.4556968337277</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>132.795767308457</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>99.68042330889656</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1619,10 +1619,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074803</v>
       </c>
       <c r="H14" t="n">
-        <v>101.4556968337277</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>22.2853439284767</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>18.2277202765958</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1895,10 +1895,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>206.485501777225</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2008,19 +2008,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>45.61239570677301</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170532</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454387</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.3727203283489</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>20.73696989209268</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>71.49788411901491</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7884964950061</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>206.8261815634875</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>50.3082548690719</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>28.46824604904421</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>118.410550503672</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015889</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170481</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="35">
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,10 +3484,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>234.1486472602379</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3667,7 +3667,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>28.46824604904444</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>280.93908731885</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.7034552100802</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3907,7 +3907,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>60.94899222869645</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>46.47710458853216</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4144,16 +4144,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>82.15263531037775</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.988348109748</v>
+        <v>1265.851063100791</v>
       </c>
       <c r="C2" t="n">
-        <v>324.8862793335753</v>
+        <v>827.7085902842148</v>
       </c>
       <c r="D2" t="n">
-        <v>293.0168985484239</v>
+        <v>391.7988054586593</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2825577471231</v>
+        <v>362.0644646573585</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069703</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069703</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018661</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018661</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797679</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756274</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>2092.747277443157</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>2091.932226894594</v>
       </c>
       <c r="X2" t="n">
-        <v>789.5336382545983</v>
+        <v>1696.396353245642</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.2475145542517</v>
+        <v>1288.110229545295</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021815</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.839749858457</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.74946100501</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.629046331964</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481257</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.8601182143095</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305219</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>818.1881391909795</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1142.746464157192</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1142.746464157192</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1142.746464157192</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474356</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474356</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474356</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782915</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449414991</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957714</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288316</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288284</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350283</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.953327083477</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322357</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.600112101578</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>714.6817019292769</v>
+        <v>1092.169142605979</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1199904125018</v>
+        <v>919.6074310892044</v>
       </c>
       <c r="D4" t="n">
-        <v>376.2419976140245</v>
+        <v>753.7294382907271</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>583.9714345414643</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>407.2643805032205</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851368</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018661</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018661</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213222</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>742.0756208892832</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214703</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512699</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091154</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091154</v>
       </c>
       <c r="V4" t="n">
-        <v>1651.338150414452</v>
+        <v>2028.825591091154</v>
       </c>
       <c r="W4" t="n">
-        <v>1379.311746000743</v>
+        <v>1756.799186677446</v>
       </c>
       <c r="X4" t="n">
-        <v>1133.919991334156</v>
+        <v>1511.407432010858</v>
       </c>
       <c r="Y4" t="n">
-        <v>906.5003206482641</v>
+        <v>1283.987761324967</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.3315093046215</v>
+        <v>1671.54282645597</v>
       </c>
       <c r="C5" t="n">
-        <v>925.2294405284488</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D5" t="n">
-        <v>893.3600597432974</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2117.190175981105</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.644793662241</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1270.644793662241</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1270.644793662241</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1270.644793662241</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851938</v>
+        <v>1674.185399119637</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9919000353618</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D8" t="n">
-        <v>518.0821152098063</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>84.30737036810143</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743897</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743897</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743897</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743897</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873485</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>2523.873152685177</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996789</v>
+        <v>2104.730689264488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296442</v>
+        <v>1696.444565564141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3366467865964</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>637.7749352698213</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>471.8969424713439</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>302.1389387220812</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>125.4318846838374</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838374</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232026</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911637</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>996.6142036902587</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1322.897104090963</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925637</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1555.174476552784</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1283.148072139076</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1037.756317472488</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.3366467865964</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984731</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168154</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342599</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500894</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099101018</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2164785333653</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P11" t="n">
         <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928798</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245815</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179641</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590675</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469639</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J13" t="n">
         <v>183.3156618458051</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1749.292858917089</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1503.901104250501</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1276.481433564609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984731</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168154</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342599</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500894</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099101018</v>
+        <v>516.9624360939396</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333653</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928798</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245815</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179641</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590675</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169986</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469639</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>921.5429130934995</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C16" t="n">
-        <v>748.9812015767244</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D16" t="n">
-        <v>583.1032087782471</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>413.3452050289844</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>236.6381509907407</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
         <v>183.3156618458051</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2669.467316876684</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2423.587870455139</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U16" t="n">
-        <v>2145.154869708244</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>1858.199361578674</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.172957164966</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1340.781202498379</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.361531812487</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847318</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939395</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>115.5646047172033</v>
       </c>
       <c r="H17" t="n">
         <v>97.1527660539752</v>
@@ -5513,19 +5513,19 @@
         <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.24618372937</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687548</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="M17" t="n">
-        <v>3292.836108510714</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="N17" t="n">
-        <v>3292.836108510714</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O17" t="n">
         <v>3292.836108510714</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.229814098728</v>
+        <v>1052.109260520273</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819529</v>
+        <v>879.5475490034974</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834756</v>
+        <v>713.6695562050201</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342129</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959691</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G19" t="n">
-        <v>96.7359766811152</v>
+        <v>325.2981002160655</v>
       </c>
       <c r="H19" t="n">
-        <v>96.7359766811152</v>
+        <v>185.39592590644</v>
       </c>
       <c r="I19" t="n">
         <v>96.7359766811152</v>
@@ -5701,22 +5701,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2275.721217135017</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1988.765709005447</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1716.739304591739</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503607</v>
+        <v>1471.347549925151</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177151</v>
+        <v>1243.92787923926</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168569</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351992</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526437</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847319</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939397</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
         <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,28 +5756,28 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>1366.340956092211</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940407</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510714</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302704</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
         <v>4533.079733112636</v>
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1056.838397217808</v>
+        <v>1006.036133543734</v>
       </c>
       <c r="C22" t="n">
-        <v>884.2766857010332</v>
+        <v>833.4744220269588</v>
       </c>
       <c r="D22" t="n">
-        <v>718.3986929025559</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="E22" t="n">
-        <v>548.6406891532931</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F22" t="n">
-        <v>371.9336351150493</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G22" t="n">
-        <v>206.3423601408769</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165739</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U22" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.468441289275</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1721.468441289275</v>
+        <v>1670.6661776152</v>
       </c>
       <c r="X22" t="n">
-        <v>1476.076686622687</v>
+        <v>1425.274422948613</v>
       </c>
       <c r="Y22" t="n">
-        <v>1248.657015936795</v>
+        <v>1197.854752262721</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.578225095767</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>777.016513578992</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805147</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312519</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930081</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167234</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
         <v>444.5591692831957</v>
@@ -6415,16 +6415,16 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
         <v>1003.573296407379</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883923</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C31" t="n">
-        <v>692.1480610180166</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D31" t="n">
-        <v>526.2700682195393</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5120644702766</v>
+        <v>462.7983383258803</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6622,13 +6622,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066055</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.57329640738</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="32">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716168</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731395</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.849915585633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6889,19 +6889,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6938,22 +6938,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716171</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731398</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
         <v>444.5591692831958</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7448,7 +7448,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.0206718702448</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C43" t="n">
-        <v>666.4589603534697</v>
+        <v>843.1660143917136</v>
       </c>
       <c r="D43" t="n">
-        <v>500.5809675549924</v>
+        <v>677.2880215932363</v>
       </c>
       <c r="E43" t="n">
-        <v>330.8229638057297</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F43" t="n">
         <v>330.8229638057297</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.50262887895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755402</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008507</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.966900465229</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127501</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="44">
@@ -7655,34 +7655,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257732</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.710185817961</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C46" t="n">
-        <v>926.1484743011862</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D46" t="n">
-        <v>760.2704815027089</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E46" t="n">
-        <v>590.5124777534461</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F46" t="n">
-        <v>413.8054237152023</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>2035.366634303136</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W46" t="n">
-        <v>1763.340229889428</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1517.94847522284</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1290.528804536948</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805803608</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773327</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854953</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773327</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281350146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706658</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,19 +8611,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>329.5786872734385</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M14" t="n">
-        <v>1126.736919799244</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.606269745712</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>860.0355415814579</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-4.259375782028067e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>184.7831561774882</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.01113273462</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>90.22000922290067</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.146865729424778</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>267.5985112554885</v>
       </c>
       <c r="H14" t="n">
-        <v>184.7831561774883</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>135.3636110865066</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>268.0111327346201</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>11.3810530784668</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>122.4480280049971</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>268.01113273462</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>268.0111327346199</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>117.7661826744365</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>197.8082562505565</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729424462</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>18.31929241554531</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>52.42554389793533</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>35.15749310933348</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3.146865729423844</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.19697732171705</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>223.1369608195774</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>124.3589898130752</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>81.78272691405286</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647230.1508507257</v>
+        <v>656949.4160024129</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647230.1508507257</v>
+        <v>659701.6529083931</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>649042.955632593</v>
+        <v>659701.6529083931</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645825.9927648257</v>
+        <v>645825.9927648258</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645825.9927648256</v>
+        <v>645825.9927648258</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645825.9927648258</v>
+        <v>645825.9927648257</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673080.5876565054</v>
+        <v>673080.5876565052</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673080.5876565052</v>
+        <v>673080.5876565054</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342449</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="C2" t="n">
         <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
-        <v>303314.3387830058</v>
+        <v>303314.3387830059</v>
       </c>
       <c r="F2" t="n">
-        <v>303314.3387830058</v>
+        <v>303314.3387830059</v>
       </c>
       <c r="G2" t="n">
         <v>303314.3387830058</v>
@@ -26344,13 +26344,13 @@
         <v>316114.5504824113</v>
       </c>
       <c r="M2" t="n">
+        <v>316114.5504824113</v>
+      </c>
+      <c r="N2" t="n">
         <v>316114.5504824112</v>
       </c>
-      <c r="N2" t="n">
-        <v>316114.5504824113</v>
-      </c>
       <c r="O2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="P2" t="n">
         <v>316114.5504824113</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039023</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739072</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520275</v>
+        <v>161735.0752101145</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856128</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784557</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104678</v>
+        <v>134989.9446130036</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999513</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483863</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856657</v>
+        <v>65247.19221856658</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856657</v>
+        <v>65247.19221856658</v>
       </c>
       <c r="G4" t="n">
         <v>65247.19221856658</v>
       </c>
       <c r="H4" t="n">
-        <v>65247.19221856658</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68000.69828933281</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814182</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
         <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79756.52310920297</v>
+        <v>-121141.3829277504</v>
       </c>
       <c r="C6" t="n">
-        <v>62434.77755050702</v>
+        <v>73498.68174590629</v>
       </c>
       <c r="D6" t="n">
-        <v>55581.72136538647</v>
+        <v>90839.22611981358</v>
       </c>
       <c r="E6" t="n">
-        <v>-59251.48946523579</v>
+        <v>2736.170521880434</v>
       </c>
       <c r="F6" t="n">
-        <v>164547.8042867917</v>
+        <v>164471.2457319949</v>
       </c>
       <c r="G6" t="n">
-        <v>164547.8042867917</v>
+        <v>164471.2457319948</v>
       </c>
       <c r="H6" t="n">
-        <v>164547.8042867918</v>
+        <v>164471.2457319951</v>
       </c>
       <c r="I6" t="n">
-        <v>152030.8979544465</v>
+        <v>152007.6736150637</v>
       </c>
       <c r="J6" t="n">
-        <v>59381.14824229572</v>
+        <v>9764.559762290441</v>
       </c>
       <c r="K6" t="n">
-        <v>170395.613587286</v>
+        <v>156558.3806800578</v>
       </c>
       <c r="L6" t="n">
-        <v>161448.0024987761</v>
+        <v>170372.3892479033</v>
       </c>
       <c r="M6" t="n">
-        <v>-16395.37302318186</v>
+        <v>35382.44463489978</v>
       </c>
       <c r="N6" t="n">
-        <v>170395.613587286</v>
+        <v>170372.3892479033</v>
       </c>
       <c r="O6" t="n">
-        <v>170395.613587286</v>
+        <v>170372.3892479033</v>
       </c>
       <c r="P6" t="n">
-        <v>170395.613587286</v>
+        <v>170372.3892479034</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773327</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773327</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052428</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825307</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773327</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052428</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825307</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773327</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052428</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825307</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>196.9558765199561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,13 +27436,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.37052387401945</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.63633953052766</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>238.6991261789679</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.5243745049232</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,7 +27622,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>327.9615906091026</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.83389772753335</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>376.5286747343915</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,10 +27913,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>338.8964581122902</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>3.49787963914963</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805803608</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773327</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854953</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773327</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281350146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706658</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35246,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>329.5786872734385</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,10 +35650,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M14" t="n">
-        <v>1126.736919799244</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.606269745712</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,13 +35890,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>860.0355415814579</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,19 +36841,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.533792496097</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37470,10 +37470,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512945</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.891691782153</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
